--- a/PyProject/Treated_Sheet/summed_and_concatenated.xlsx
+++ b/PyProject/Treated_Sheet/summed_and_concatenated.xlsx
@@ -14,24 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Metrics</t>
   </si>
   <si>
+    <t>Bakka_Viper_Dalua_Archfiend__All_Operation.xlsx</t>
+  </si>
+  <si>
     <t>Dalua_Bolide_Panzer_Scorpion__All_Operation.xlsx</t>
   </si>
   <si>
-    <t>Pengus_Panini_Stella_Engel__All_Operation.xlsx</t>
-  </si>
-  <si>
-    <t>Pengus_Stella_Eight_Pixie__All_Operation.xlsx</t>
-  </si>
-  <si>
-    <t>Seeker_Pengus_Bed_Wombat__All_Operation.xlsx</t>
-  </si>
-  <si>
-    <t>Sirio_Pengus_Sloth_Oracle__All_Operation.xlsx</t>
+    <t>Dalua_Brother_Bolide_Photon__All_Operation.xlsx</t>
+  </si>
+  <si>
+    <t>Dalua_Castillo_Shockies_Zeeto__All_Operation.xlsx</t>
+  </si>
+  <si>
+    <t>Dalua_Endymion_Slashed_Vulkov__All_Operation.xlsx</t>
+  </si>
+  <si>
+    <t>Dalua_Panzer_Flipper_Bello__All_Operation.xlsx</t>
+  </si>
+  <si>
+    <t>Dalua_Panzer_Hillbilly_Mescrope__All_Operation.xlsx</t>
+  </si>
+  <si>
+    <t>Dalua_Slashed_Rampart_Seeker__All_Operation.xlsx</t>
+  </si>
+  <si>
+    <t>Dalua_Snowfox_Bob_Jackdaw__All_Operation.xlsx</t>
+  </si>
+  <si>
+    <t>Hawkeye_Bello_Flipper_Epsilon__All_Operation.xlsx</t>
+  </si>
+  <si>
+    <t>Hawkeye_Roach_Galaxc_Engel__All_Operation.xlsx</t>
+  </si>
+  <si>
+    <t>Roach_Castillo_Vector_Pengus__All_Operation.xlsx</t>
+  </si>
+  <si>
+    <t>Stark_RubberDucky_Dalua_Hydra__All_Operation.xlsx</t>
   </si>
   <si>
     <t>KILLS</t>
@@ -410,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,145 +459,337 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>2720</v>
+      </c>
+      <c r="C2">
+        <v>2494</v>
+      </c>
+      <c r="D2">
+        <v>2162</v>
+      </c>
+      <c r="E2">
+        <v>2299</v>
+      </c>
+      <c r="F2">
+        <v>2376</v>
+      </c>
+      <c r="G2">
+        <v>3371</v>
+      </c>
+      <c r="H2">
+        <v>2483</v>
+      </c>
+      <c r="I2">
+        <v>3119</v>
+      </c>
+      <c r="J2">
+        <v>1717</v>
+      </c>
+      <c r="K2">
+        <v>2843</v>
+      </c>
+      <c r="L2">
+        <v>1163</v>
+      </c>
+      <c r="M2">
+        <v>3029</v>
+      </c>
+      <c r="N2">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>7022</v>
+      </c>
+      <c r="C3">
+        <v>5640</v>
+      </c>
+      <c r="D3">
+        <v>7245</v>
+      </c>
+      <c r="E3">
+        <v>7504</v>
+      </c>
+      <c r="F3">
+        <v>4879</v>
+      </c>
+      <c r="G3">
+        <v>5712</v>
+      </c>
+      <c r="H3">
+        <v>3939</v>
+      </c>
+      <c r="I3">
+        <v>10963</v>
+      </c>
+      <c r="J3">
+        <v>11274</v>
+      </c>
+      <c r="K3">
+        <v>3685</v>
+      </c>
+      <c r="L3">
+        <v>2953</v>
+      </c>
+      <c r="M3">
+        <v>10416</v>
+      </c>
+      <c r="N3">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>5149</v>
+      </c>
+      <c r="C4">
+        <v>3023</v>
+      </c>
+      <c r="D4">
+        <v>4466</v>
+      </c>
+      <c r="E4">
+        <v>4767</v>
+      </c>
+      <c r="F4">
+        <v>3030</v>
+      </c>
+      <c r="G4">
+        <v>4116</v>
+      </c>
+      <c r="H4">
+        <v>2058</v>
+      </c>
+      <c r="I4">
+        <v>6959</v>
+      </c>
+      <c r="J4">
+        <v>9154</v>
+      </c>
+      <c r="K4">
+        <v>2661</v>
+      </c>
+      <c r="L4">
+        <v>1832</v>
+      </c>
+      <c r="M4">
+        <v>7430</v>
+      </c>
+      <c r="N4">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>390</v>
+      </c>
+      <c r="J5">
+        <v>62</v>
+      </c>
+      <c r="K5">
+        <v>26</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>29</v>
+      </c>
+      <c r="N5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>144</v>
+      </c>
+      <c r="C6">
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <v>242</v>
+      </c>
+      <c r="F6">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <v>77</v>
+      </c>
+      <c r="H6">
+        <v>68</v>
+      </c>
+      <c r="I6">
+        <v>107</v>
+      </c>
+      <c r="J6">
+        <v>112</v>
+      </c>
+      <c r="K6">
+        <v>109</v>
+      </c>
+      <c r="L6">
+        <v>108</v>
+      </c>
+      <c r="M6">
+        <v>68</v>
+      </c>
+      <c r="N6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>26</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>2534</v>
-      </c>
-      <c r="C2">
-        <v>2217</v>
-      </c>
-      <c r="D2">
-        <v>2445</v>
-      </c>
-      <c r="E2">
-        <v>2159</v>
-      </c>
-      <c r="F2">
-        <v>3554</v>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>5840</v>
-      </c>
-      <c r="C3">
-        <v>6979</v>
-      </c>
-      <c r="D3">
-        <v>17187</v>
-      </c>
-      <c r="E3">
-        <v>10062</v>
-      </c>
-      <c r="F3">
-        <v>16065</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>3023</v>
-      </c>
-      <c r="C4">
-        <v>4095</v>
-      </c>
-      <c r="D4">
-        <v>11738</v>
-      </c>
-      <c r="E4">
-        <v>6048</v>
-      </c>
-      <c r="F4">
-        <v>8380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>92</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-      <c r="E5">
-        <v>59</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>89</v>
+      </c>
+      <c r="E8">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>88</v>
+      </c>
+      <c r="G8">
+        <v>83</v>
+      </c>
+      <c r="H8">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>29</v>
+      </c>
+      <c r="J8">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>121</v>
-      </c>
-      <c r="C6">
-        <v>103</v>
-      </c>
-      <c r="D6">
-        <v>67</v>
-      </c>
-      <c r="E6">
-        <v>78</v>
-      </c>
-      <c r="F6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>67</v>
-      </c>
-      <c r="D8">
-        <v>49</v>
-      </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-      <c r="F8">
-        <v>79</v>
+      <c r="K8">
+        <v>146</v>
+      </c>
+      <c r="L8">
+        <v>37</v>
+      </c>
+      <c r="M8">
+        <v>87</v>
+      </c>
+      <c r="N8">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
